--- a/artfynd/A 15353-2020.xlsx
+++ b/artfynd/A 15353-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY54"/>
+  <dimension ref="A1:AY61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7944,6 +7944,968 @@
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>111898336</v>
+      </c>
+      <c r="B55" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>650105.085176448</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6654011.298884101</v>
+      </c>
+      <c r="S55" t="n">
+        <v>10</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="inlineStr">
+        <is>
+          <t>Ängsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM55" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Thorleif Joelson</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Thorleif Joelson, Henry Åkerström</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr">
+        <is>
+          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>111898889</v>
+      </c>
+      <c r="B56" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>650135.0421630922</v>
+      </c>
+      <c r="R56" t="n">
+        <v>6654002.501842719</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="inlineStr">
+        <is>
+          <t>Ängsbarrskog</t>
+        </is>
+      </c>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>Ungskog</t>
+        </is>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Thorleif Joelson</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Thorleif Joelson, Henry Åkerström</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr">
+        <is>
+          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>111898507</v>
+      </c>
+      <c r="B57" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>650086.8716060545</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6654015.064976334</v>
+      </c>
+      <c r="S57" t="n">
+        <v>10</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="inlineStr">
+        <is>
+          <t>Ängsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM57" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Thorleif Joelson</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Thorleif Joelson, Henry Åkerström</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr">
+        <is>
+          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>111898660</v>
+      </c>
+      <c r="B58" t="n">
+        <v>100532</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>223246</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Skogsalm</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Ulmus glabra</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Huds.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>650054.1336129439</v>
+      </c>
+      <c r="R58" t="n">
+        <v>6654018.240072312</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Stammens omkrets i brösthöjd: 64 cm</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH58" t="inlineStr">
+        <is>
+          <t>Ängsblandskog</t>
+        </is>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Thorleif Joelson</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Thorleif Joelson, Henry Åkerström</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr">
+        <is>
+          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>111898191</v>
+      </c>
+      <c r="B59" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>650135.0421630922</v>
+      </c>
+      <c r="R59" t="n">
+        <v>6654002.501842719</v>
+      </c>
+      <c r="S59" t="n">
+        <v>10</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH59" t="inlineStr">
+        <is>
+          <t>Ängsbarrskog</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>Ungskog</t>
+        </is>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Thorleif Joelson</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Thorleif Joelson, Henry Åkerström</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr">
+        <is>
+          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>111911660</v>
+      </c>
+      <c r="B60" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Lill-Ångeskogen, 3 km SV om Lena kyrka, Upl</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>650026.652882754</v>
+      </c>
+      <c r="R60" t="n">
+        <v>6654299.07778531</v>
+      </c>
+      <c r="S60" t="n">
+        <v>10</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH60" t="inlineStr">
+        <is>
+          <t>Barrskog på blockmark</t>
+        </is>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Thorleif Joelson</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Thorleif Joelson, Henry Åkerström</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr">
+        <is>
+          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>111911698</v>
+      </c>
+      <c r="B61" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Lill-Ångeskogen, 3 km SV om Lena kyrka, Upl</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>650032.9755174413</v>
+      </c>
+      <c r="R61" t="n">
+        <v>6654279.303373625</v>
+      </c>
+      <c r="S61" t="n">
+        <v>10</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH61" t="inlineStr">
+        <is>
+          <t>Barrskog på blockmark</t>
+        </is>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Thorleif Joelson</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Thorleif Joelson, Henry Åkerström</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr">
+        <is>
+          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 15353-2020.xlsx
+++ b/artfynd/A 15353-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY61"/>
+  <dimension ref="A1:AY59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7946,10 +7946,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111898336</v>
+        <v>111898660</v>
       </c>
       <c r="B55" t="n">
-        <v>89405</v>
+        <v>100532</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7958,30 +7958,31 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1202</v>
+        <v>223246</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7989,10 +7990,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>650105.085176448</v>
+        <v>650054.1336129439</v>
       </c>
       <c r="R55" t="n">
-        <v>6654011.298884101</v>
+        <v>6654018.240072312</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -8037,6 +8038,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Stammens omkrets i brösthöjd: 64 cm</t>
+        </is>
+      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
@@ -8050,26 +8056,6 @@
       <c r="AH55" t="inlineStr">
         <is>
           <t>Ängsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ55" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK55" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM55" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO55" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -8091,10 +8077,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111898889</v>
+        <v>111898336</v>
       </c>
       <c r="B56" t="n">
-        <v>98535</v>
+        <v>89405</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -8103,35 +8089,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -8139,10 +8120,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>650135.0421630922</v>
+        <v>650105.085176448</v>
       </c>
       <c r="R56" t="n">
-        <v>6654002.501842719</v>
+        <v>6654011.298884101</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -8199,12 +8180,27 @@
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>Ängsbarrskog</t>
-        </is>
-      </c>
-      <c r="AI56" t="inlineStr">
-        <is>
-          <t>Ungskog</t>
+          <t>Ängsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM56" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO56" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -8226,10 +8222,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111898507</v>
+        <v>111898889</v>
       </c>
       <c r="B57" t="n">
-        <v>89845</v>
+        <v>98535</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -8238,30 +8234,35 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1209</v>
+        <v>222498</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -8269,10 +8270,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>650086.8716060545</v>
+        <v>650135.0421630922</v>
       </c>
       <c r="R57" t="n">
-        <v>6654015.064976334</v>
+        <v>6654002.501842719</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -8329,27 +8330,12 @@
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>Ängsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ57" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK57" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM57" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO57" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Ängsbarrskog</t>
+        </is>
+      </c>
+      <c r="AI57" t="inlineStr">
+        <is>
+          <t>Ungskog</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -8371,10 +8357,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111898660</v>
+        <v>111898191</v>
       </c>
       <c r="B58" t="n">
-        <v>100532</v>
+        <v>90332</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -8383,31 +8369,38 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>223246</v>
+        <v>4769</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Huds.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -8415,10 +8408,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>650054.1336129439</v>
+        <v>650135.0421630922</v>
       </c>
       <c r="R58" t="n">
-        <v>6654018.240072312</v>
+        <v>6654002.501842719</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -8463,11 +8456,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>Stammens omkrets i brösthöjd: 64 cm</t>
-        </is>
-      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
@@ -8480,7 +8468,12 @@
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>Ängsblandskog</t>
+          <t>Ängsbarrskog</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>Ungskog</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -8502,10 +8495,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111898191</v>
+        <v>111898507</v>
       </c>
       <c r="B59" t="n">
-        <v>90332</v>
+        <v>89845</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -8514,37 +8507,29 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4769</v>
+        <v>1209</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
@@ -8553,10 +8538,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>650135.0421630922</v>
+        <v>650086.8716060545</v>
       </c>
       <c r="R59" t="n">
-        <v>6654002.501842719</v>
+        <v>6654015.064976334</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -8613,12 +8598,27 @@
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>Ängsbarrskog</t>
-        </is>
-      </c>
-      <c r="AI59" t="inlineStr">
-        <is>
-          <t>Ungskog</t>
+          <t>Ängsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM59" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO59" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -8633,274 +8633,6 @@
         </is>
       </c>
       <c r="AY59" t="inlineStr">
-        <is>
-          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>111911660</v>
-      </c>
-      <c r="B60" t="n">
-        <v>96348</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>VU</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>220787</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Goodyera repens</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>Lill-Ångeskogen, 3 km SV om Lena kyrka, Upl</t>
-        </is>
-      </c>
-      <c r="Q60" t="n">
-        <v>650026.652882754</v>
-      </c>
-      <c r="R60" t="n">
-        <v>6654299.07778531</v>
-      </c>
-      <c r="S60" t="n">
-        <v>10</v>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>Uppsala</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>Uppsala</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Uppland</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>Lena</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AD60" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE60" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH60" t="inlineStr">
-        <is>
-          <t>Barrskog på blockmark</t>
-        </is>
-      </c>
-      <c r="AT60" t="inlineStr"/>
-      <c r="AW60" t="inlineStr">
-        <is>
-          <t>Thorleif Joelson</t>
-        </is>
-      </c>
-      <c r="AX60" t="inlineStr">
-        <is>
-          <t>Thorleif Joelson, Henry Åkerström</t>
-        </is>
-      </c>
-      <c r="AY60" t="inlineStr">
-        <is>
-          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>111911698</v>
-      </c>
-      <c r="B61" t="n">
-        <v>96348</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>VU</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>220787</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Goodyera repens</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>Lill-Ångeskogen, 3 km SV om Lena kyrka, Upl</t>
-        </is>
-      </c>
-      <c r="Q61" t="n">
-        <v>650032.9755174413</v>
-      </c>
-      <c r="R61" t="n">
-        <v>6654279.303373625</v>
-      </c>
-      <c r="S61" t="n">
-        <v>10</v>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>Uppsala</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>Uppsala</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>Uppland</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>Lena</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AA61" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AD61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH61" t="inlineStr">
-        <is>
-          <t>Barrskog på blockmark</t>
-        </is>
-      </c>
-      <c r="AT61" t="inlineStr"/>
-      <c r="AW61" t="inlineStr">
-        <is>
-          <t>Thorleif Joelson</t>
-        </is>
-      </c>
-      <c r="AX61" t="inlineStr">
-        <is>
-          <t>Thorleif Joelson, Henry Åkerström</t>
-        </is>
-      </c>
-      <c r="AY61" t="inlineStr">
         <is>
           <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
         </is>

--- a/artfynd/A 15353-2020.xlsx
+++ b/artfynd/A 15353-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY59"/>
+  <dimension ref="A1:AY61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7946,10 +7946,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111898660</v>
+        <v>111898336</v>
       </c>
       <c r="B55" t="n">
-        <v>100532</v>
+        <v>89405</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7958,31 +7958,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>223246</v>
+        <v>1202</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7990,10 +7989,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>650054.1336129439</v>
+        <v>650105.085176448</v>
       </c>
       <c r="R55" t="n">
-        <v>6654018.240072312</v>
+        <v>6654011.298884101</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -8038,11 +8037,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>Stammens omkrets i brösthöjd: 64 cm</t>
-        </is>
-      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
@@ -8056,6 +8050,26 @@
       <c r="AH55" t="inlineStr">
         <is>
           <t>Ängsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM55" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -8077,10 +8091,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111898336</v>
+        <v>111898507</v>
       </c>
       <c r="B56" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -8089,25 +8103,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -8120,10 +8134,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>650105.085176448</v>
+        <v>650086.8716060545</v>
       </c>
       <c r="R56" t="n">
-        <v>6654011.298884101</v>
+        <v>6654015.064976334</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -8222,10 +8236,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111898889</v>
+        <v>111898191</v>
       </c>
       <c r="B57" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -8238,31 +8252,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -8357,10 +8374,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111898191</v>
+        <v>111898660</v>
       </c>
       <c r="B58" t="n">
-        <v>90332</v>
+        <v>100532</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -8369,38 +8386,31 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4769</v>
+        <v>223246</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Huds.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -8408,10 +8418,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>650135.0421630922</v>
+        <v>650054.1336129439</v>
       </c>
       <c r="R58" t="n">
-        <v>6654002.501842719</v>
+        <v>6654018.240072312</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -8456,6 +8466,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Stammens omkrets i brösthöjd: 64 cm</t>
+        </is>
+      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
@@ -8468,12 +8483,7 @@
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>Ängsbarrskog</t>
-        </is>
-      </c>
-      <c r="AI58" t="inlineStr">
-        <is>
-          <t>Ungskog</t>
+          <t>Ängsblandskog</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -8495,10 +8505,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111898507</v>
+        <v>111898889</v>
       </c>
       <c r="B59" t="n">
-        <v>89845</v>
+        <v>98535</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -8507,30 +8517,35 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1209</v>
+        <v>222498</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -8538,10 +8553,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>650086.8716060545</v>
+        <v>650135.0421630922</v>
       </c>
       <c r="R59" t="n">
-        <v>6654015.064976334</v>
+        <v>6654002.501842719</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -8598,27 +8613,12 @@
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>Ängsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ59" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK59" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM59" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO59" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Ängsbarrskog</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>Ungskog</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -8633,6 +8633,274 @@
         </is>
       </c>
       <c r="AY59" t="inlineStr">
+        <is>
+          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>111911660</v>
+      </c>
+      <c r="B60" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Lill-Ångeskogen, 3 km SV om Lena kyrka, Upl</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>650026.652882754</v>
+      </c>
+      <c r="R60" t="n">
+        <v>6654299.07778531</v>
+      </c>
+      <c r="S60" t="n">
+        <v>10</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH60" t="inlineStr">
+        <is>
+          <t>Barrskog på blockmark</t>
+        </is>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Thorleif Joelson</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Thorleif Joelson, Henry Åkerström</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr">
+        <is>
+          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>111911698</v>
+      </c>
+      <c r="B61" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Lill-Ångeskogen, 3 km SV om Lena kyrka, Upl</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>650032.9755174413</v>
+      </c>
+      <c r="R61" t="n">
+        <v>6654279.303373625</v>
+      </c>
+      <c r="S61" t="n">
+        <v>10</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH61" t="inlineStr">
+        <is>
+          <t>Barrskog på blockmark</t>
+        </is>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Thorleif Joelson</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Thorleif Joelson, Henry Åkerström</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr">
         <is>
           <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
         </is>

--- a/artfynd/A 15353-2020.xlsx
+++ b/artfynd/A 15353-2020.xlsx
@@ -7946,10 +7946,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111898336</v>
+        <v>111898889</v>
       </c>
       <c r="B55" t="n">
-        <v>89405</v>
+        <v>98535</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7958,30 +7958,35 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7989,10 +7994,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>650105.085176448</v>
+        <v>650135.0421630922</v>
       </c>
       <c r="R55" t="n">
-        <v>6654011.298884101</v>
+        <v>6654002.501842719</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -8049,27 +8054,12 @@
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>Ängsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ55" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK55" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM55" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO55" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Ängsbarrskog</t>
+        </is>
+      </c>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>Ungskog</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -8091,10 +8081,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111898507</v>
+        <v>111898660</v>
       </c>
       <c r="B56" t="n">
-        <v>89845</v>
+        <v>100532</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -8103,30 +8093,31 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1209</v>
+        <v>223246</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -8134,10 +8125,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>650086.8716060545</v>
+        <v>650054.1336129439</v>
       </c>
       <c r="R56" t="n">
-        <v>6654015.064976334</v>
+        <v>6654018.240072312</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -8182,6 +8173,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Stammens omkrets i brösthöjd: 64 cm</t>
+        </is>
+      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
@@ -8195,26 +8191,6 @@
       <c r="AH56" t="inlineStr">
         <is>
           <t>Ängsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ56" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK56" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM56" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO56" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -8236,10 +8212,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111898191</v>
+        <v>111898336</v>
       </c>
       <c r="B57" t="n">
-        <v>90332</v>
+        <v>89405</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -8248,37 +8224,29 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4769</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
@@ -8287,10 +8255,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>650135.0421630922</v>
+        <v>650105.085176448</v>
       </c>
       <c r="R57" t="n">
-        <v>6654002.501842719</v>
+        <v>6654011.298884101</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -8347,12 +8315,27 @@
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>Ängsbarrskog</t>
-        </is>
-      </c>
-      <c r="AI57" t="inlineStr">
-        <is>
-          <t>Ungskog</t>
+          <t>Ängsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM57" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -8374,10 +8357,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111898660</v>
+        <v>111898507</v>
       </c>
       <c r="B58" t="n">
-        <v>100532</v>
+        <v>89845</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -8386,31 +8369,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>223246</v>
+        <v>1209</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -8418,10 +8400,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>650054.1336129439</v>
+        <v>650086.8716060545</v>
       </c>
       <c r="R58" t="n">
-        <v>6654018.240072312</v>
+        <v>6654015.064976334</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -8466,11 +8448,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>Stammens omkrets i brösthöjd: 64 cm</t>
-        </is>
-      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
@@ -8484,6 +8461,26 @@
       <c r="AH58" t="inlineStr">
         <is>
           <t>Ängsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ58" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM58" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO58" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -8505,10 +8502,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111898889</v>
+        <v>111898191</v>
       </c>
       <c r="B59" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -8521,31 +8518,34 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>

--- a/artfynd/A 15353-2020.xlsx
+++ b/artfynd/A 15353-2020.xlsx
@@ -7946,10 +7946,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111898889</v>
+        <v>111898507</v>
       </c>
       <c r="B55" t="n">
-        <v>98535</v>
+        <v>89845</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7958,35 +7958,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>222498</v>
+        <v>1209</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7994,10 +7989,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>650135.0421630922</v>
+        <v>650086.8716060545</v>
       </c>
       <c r="R55" t="n">
-        <v>6654002.501842719</v>
+        <v>6654015.064976334</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -8054,12 +8049,27 @@
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>Ängsbarrskog</t>
-        </is>
-      </c>
-      <c r="AI55" t="inlineStr">
-        <is>
-          <t>Ungskog</t>
+          <t>Ängsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM55" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -8357,10 +8367,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111898507</v>
+        <v>111898889</v>
       </c>
       <c r="B58" t="n">
-        <v>89845</v>
+        <v>98535</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -8369,30 +8379,35 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1209</v>
+        <v>222498</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -8400,10 +8415,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>650086.8716060545</v>
+        <v>650135.0421630922</v>
       </c>
       <c r="R58" t="n">
-        <v>6654015.064976334</v>
+        <v>6654002.501842719</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -8460,27 +8475,12 @@
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>Ängsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ58" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK58" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM58" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO58" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Ängsbarrskog</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>Ungskog</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -8640,7 +8640,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111911660</v>
+        <v>111911698</v>
       </c>
       <c r="B60" t="n">
         <v>96348</v>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -8692,10 +8692,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>650026.652882754</v>
+        <v>650032.9755174413</v>
       </c>
       <c r="R60" t="n">
-        <v>6654299.07778531</v>
+        <v>6654279.303373625</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111911698</v>
+        <v>111911660</v>
       </c>
       <c r="B61" t="n">
         <v>96348</v>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -8826,10 +8826,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>650032.9755174413</v>
+        <v>650026.652882754</v>
       </c>
       <c r="R61" t="n">
-        <v>6654279.303373625</v>
+        <v>6654299.07778531</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>

--- a/artfynd/A 15353-2020.xlsx
+++ b/artfynd/A 15353-2020.xlsx
@@ -8091,10 +8091,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111898660</v>
+        <v>111898889</v>
       </c>
       <c r="B56" t="n">
-        <v>100532</v>
+        <v>98535</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -8103,30 +8103,34 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>223246</v>
+        <v>222498</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
@@ -8135,10 +8139,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>650054.1336129439</v>
+        <v>650135.0421630922</v>
       </c>
       <c r="R56" t="n">
-        <v>6654018.240072312</v>
+        <v>6654002.501842719</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -8183,11 +8187,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Stammens omkrets i brösthöjd: 64 cm</t>
-        </is>
-      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
@@ -8200,7 +8199,12 @@
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>Ängsblandskog</t>
+          <t>Ängsbarrskog</t>
+        </is>
+      </c>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>Ungskog</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -8367,10 +8371,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111898889</v>
+        <v>111898191</v>
       </c>
       <c r="B58" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -8383,31 +8387,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -8502,10 +8509,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111898191</v>
+        <v>111898660</v>
       </c>
       <c r="B59" t="n">
-        <v>90332</v>
+        <v>100532</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -8514,38 +8521,31 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4769</v>
+        <v>223246</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Huds.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -8553,10 +8553,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>650135.0421630922</v>
+        <v>650054.1336129439</v>
       </c>
       <c r="R59" t="n">
-        <v>6654002.501842719</v>
+        <v>6654018.240072312</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -8601,6 +8601,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Stammens omkrets i brösthöjd: 64 cm</t>
+        </is>
+      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
@@ -8613,12 +8618,7 @@
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>Ängsbarrskog</t>
-        </is>
-      </c>
-      <c r="AI59" t="inlineStr">
-        <is>
-          <t>Ungskog</t>
+          <t>Ängsblandskog</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -8640,7 +8640,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111911698</v>
+        <v>111911660</v>
       </c>
       <c r="B60" t="n">
         <v>96348</v>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -8692,10 +8692,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>650032.9755174413</v>
+        <v>650026.652882754</v>
       </c>
       <c r="R60" t="n">
-        <v>6654279.303373625</v>
+        <v>6654299.07778531</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111911660</v>
+        <v>111911698</v>
       </c>
       <c r="B61" t="n">
         <v>96348</v>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -8826,10 +8826,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>650026.652882754</v>
+        <v>650032.9755174413</v>
       </c>
       <c r="R61" t="n">
-        <v>6654299.07778531</v>
+        <v>6654279.303373625</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>

--- a/artfynd/A 15353-2020.xlsx
+++ b/artfynd/A 15353-2020.xlsx
@@ -7946,10 +7946,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111898507</v>
+        <v>111898660</v>
       </c>
       <c r="B55" t="n">
-        <v>89845</v>
+        <v>100532</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7958,30 +7958,31 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1209</v>
+        <v>223246</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7989,10 +7990,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>650086.8716060545</v>
+        <v>650054.1336129439</v>
       </c>
       <c r="R55" t="n">
-        <v>6654015.064976334</v>
+        <v>6654018.240072312</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -8037,6 +8038,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Stammens omkrets i brösthöjd: 64 cm</t>
+        </is>
+      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
@@ -8050,26 +8056,6 @@
       <c r="AH55" t="inlineStr">
         <is>
           <t>Ängsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ55" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK55" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM55" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO55" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -8091,10 +8077,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111898889</v>
+        <v>111898191</v>
       </c>
       <c r="B56" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -8107,31 +8093,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -8371,10 +8360,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111898191</v>
+        <v>111898507</v>
       </c>
       <c r="B58" t="n">
-        <v>90332</v>
+        <v>89845</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -8383,37 +8372,29 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4769</v>
+        <v>1209</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
@@ -8422,10 +8403,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>650135.0421630922</v>
+        <v>650086.8716060545</v>
       </c>
       <c r="R58" t="n">
-        <v>6654002.501842719</v>
+        <v>6654015.064976334</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -8482,12 +8463,27 @@
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>Ängsbarrskog</t>
-        </is>
-      </c>
-      <c r="AI58" t="inlineStr">
-        <is>
-          <t>Ungskog</t>
+          <t>Ängsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ58" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM58" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO58" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -8509,10 +8505,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111898660</v>
+        <v>111898889</v>
       </c>
       <c r="B59" t="n">
-        <v>100532</v>
+        <v>98535</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -8521,30 +8517,34 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>223246</v>
+        <v>222498</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
@@ -8553,10 +8553,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>650054.1336129439</v>
+        <v>650135.0421630922</v>
       </c>
       <c r="R59" t="n">
-        <v>6654018.240072312</v>
+        <v>6654002.501842719</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -8601,11 +8601,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>Stammens omkrets i brösthöjd: 64 cm</t>
-        </is>
-      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
@@ -8618,7 +8613,12 @@
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>Ängsblandskog</t>
+          <t>Ängsbarrskog</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>Ungskog</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -8640,7 +8640,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111911660</v>
+        <v>111911698</v>
       </c>
       <c r="B60" t="n">
         <v>96348</v>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -8692,10 +8692,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>650026.652882754</v>
+        <v>650032.9755174413</v>
       </c>
       <c r="R60" t="n">
-        <v>6654299.07778531</v>
+        <v>6654279.303373625</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111911698</v>
+        <v>111911660</v>
       </c>
       <c r="B61" t="n">
         <v>96348</v>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -8826,10 +8826,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>650032.9755174413</v>
+        <v>650026.652882754</v>
       </c>
       <c r="R61" t="n">
-        <v>6654279.303373625</v>
+        <v>6654299.07778531</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>

--- a/artfynd/A 15353-2020.xlsx
+++ b/artfynd/A 15353-2020.xlsx
@@ -7946,10 +7946,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111898660</v>
+        <v>111898191</v>
       </c>
       <c r="B55" t="n">
-        <v>100532</v>
+        <v>90332</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7958,31 +7958,38 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>223246</v>
+        <v>4769</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Huds.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7990,10 +7997,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>650054.1336129439</v>
+        <v>650135</v>
       </c>
       <c r="R55" t="n">
-        <v>6654018.240072312</v>
+        <v>6654003</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -8023,24 +8030,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA55" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>Stammens omkrets i brösthöjd: 64 cm</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -8055,7 +8047,12 @@
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>Ängsblandskog</t>
+          <t>Ängsbarrskog</t>
+        </is>
+      </c>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>Ungskog</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -8077,10 +8074,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111898191</v>
+        <v>111898889</v>
       </c>
       <c r="B56" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -8093,34 +8090,31 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -8128,10 +8122,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>650135.0421630922</v>
+        <v>650135</v>
       </c>
       <c r="R56" t="n">
-        <v>6654002.501842719</v>
+        <v>6654003</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -8161,19 +8155,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -8215,10 +8199,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111898336</v>
+        <v>111898507</v>
       </c>
       <c r="B57" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -8227,25 +8211,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -8258,10 +8242,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>650105.085176448</v>
+        <v>650087</v>
       </c>
       <c r="R57" t="n">
-        <v>6654011.298884101</v>
+        <v>6654015</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -8291,19 +8275,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -8360,10 +8334,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111898507</v>
+        <v>111898660</v>
       </c>
       <c r="B58" t="n">
-        <v>89845</v>
+        <v>100532</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -8372,30 +8346,31 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1209</v>
+        <v>223246</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -8403,10 +8378,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>650086.8716060545</v>
+        <v>650054</v>
       </c>
       <c r="R58" t="n">
-        <v>6654015.064976334</v>
+        <v>6654018</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -8436,19 +8411,14 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Stammens omkrets i brösthöjd: 64 cm</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -8464,26 +8434,6 @@
       <c r="AH58" t="inlineStr">
         <is>
           <t>Ängsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ58" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK58" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM58" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO58" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -8505,10 +8455,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111898889</v>
+        <v>111898336</v>
       </c>
       <c r="B59" t="n">
-        <v>98535</v>
+        <v>89405</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -8517,35 +8467,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -8553,10 +8498,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>650135.0421630922</v>
+        <v>650105</v>
       </c>
       <c r="R59" t="n">
-        <v>6654002.501842719</v>
+        <v>6654011</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -8586,19 +8531,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA59" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -8613,12 +8548,27 @@
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>Ängsbarrskog</t>
-        </is>
-      </c>
-      <c r="AI59" t="inlineStr">
-        <is>
-          <t>Ungskog</t>
+          <t>Ängsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM59" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO59" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -8692,10 +8642,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>650032.9755174413</v>
+        <v>650033</v>
       </c>
       <c r="R60" t="n">
-        <v>6654279.303373625</v>
+        <v>6654279</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -8725,19 +8675,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -8826,10 +8766,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>650026.652882754</v>
+        <v>650027</v>
       </c>
       <c r="R61" t="n">
-        <v>6654299.07778531</v>
+        <v>6654299</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -8859,19 +8799,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD61" t="b">

--- a/artfynd/A 15353-2020.xlsx
+++ b/artfynd/A 15353-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16645969</v>
+        <v>84570041</v>
       </c>
       <c r="B2" t="n">
-        <v>90138</v>
+        <v>89403</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>366</v>
+        <v>1205</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>650245.4454225792</v>
+        <v>650682.3394157144</v>
       </c>
       <c r="R2" t="n">
-        <v>6654247.891429788</v>
+        <v>6654383.908046956</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -759,7 +759,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2014-09-12</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2014-09-12</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Ca. 15 ex. på naken ved på asplåga, omkr. 49 cm.</t>
+          <t>3 ex., 1-2 m upp i två övervallade stamsår på levande asp (med större hackspetthål), omkr. 144 cm.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Äldre barrskog med stort inslag av asp.</t>
+          <t>Litet, aspdominerat skogsparti</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Naken ved på asplåga. # Asp</t>
+          <t>Övervallade stamsår på levande asp. # Asp</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -821,10 +821,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16759004</v>
+        <v>16645969</v>
       </c>
       <c r="B3" t="n">
-        <v>90645</v>
+        <v>90138</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -837,26 +837,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4361</v>
+        <v>366</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>650034.5358884345</v>
+        <v>650245.4454225792</v>
       </c>
       <c r="R3" t="n">
-        <v>6654314.92303784</v>
+        <v>6654247.891429788</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -920,7 +920,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1 ex. under gran i äldre barrskog.</t>
+          <t>Ca. 15 ex. på naken ved på asplåga, omkr. 49 cm.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -934,7 +934,17 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Äldre barrskog.</t>
+          <t>Äldre barrskog med stort inslag av asp.</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Naken ved på asplåga. # Asp</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -952,10 +962,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16812350</v>
+        <v>16759004</v>
       </c>
       <c r="B4" t="n">
-        <v>85077</v>
+        <v>90645</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -964,30 +974,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3762</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1001,10 +1011,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>650201.2203802627</v>
+        <v>650034.5358884345</v>
       </c>
       <c r="R4" t="n">
-        <v>6654175.976897066</v>
+        <v>6654314.92303784</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1051,7 +1061,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2 ex. under gran.</t>
+          <t>1 ex. under gran i äldre barrskog.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1065,7 +1075,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Äldre barrskog med stort inslag av asp.</t>
+          <t>Äldre barrskog.</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1083,10 +1093,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16820530</v>
+        <v>16812350</v>
       </c>
       <c r="B5" t="n">
-        <v>90074</v>
+        <v>85077</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1099,34 +1109,43 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3298</v>
+        <v>3762</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Fr.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>650133.0348542985</v>
+        <v>650201.2203802627</v>
       </c>
       <c r="R5" t="n">
-        <v>6654039.481507136</v>
+        <v>6654175.976897066</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1173,7 +1192,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Flera ex. på stambasen av död, stående gran, omkr. 95 cm.</t>
+          <t>2 ex. under gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1188,16 +1207,6 @@
       <c r="AI5" t="inlineStr">
         <is>
           <t>Äldre barrskog med stort inslag av asp.</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>Gran</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Stambasen av död, stående gran. # Gran</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1215,10 +1224,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16909680</v>
+        <v>16820530</v>
       </c>
       <c r="B6" t="n">
-        <v>89376</v>
+        <v>90074</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1231,21 +1240,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4660</v>
+        <v>3298</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rävticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Inocutis rheades</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Pers.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1255,10 +1264,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>650230.3599248125</v>
+        <v>650133.0348542985</v>
       </c>
       <c r="R6" t="n">
-        <v>6654248.779146108</v>
+        <v>6654039.481507136</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1305,7 +1314,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>1 gyttring på stammen av levande asp, omkr. 128 cm.</t>
+          <t>Flera ex. på stambasen av död, stående gran, omkr. 95 cm.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1324,12 +1333,12 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Stammen av levande asp. # Asp</t>
+          <t>Stambasen av död, stående gran. # Gran</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1347,10 +1356,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16988187</v>
+        <v>16909680</v>
       </c>
       <c r="B7" t="n">
-        <v>93145</v>
+        <v>89376</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1363,43 +1372,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2667</v>
+        <v>4660</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Rävticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Inocutis rheades</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
+          <t>(Pers.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>650235.1728147549</v>
+        <v>650230.3599248125</v>
       </c>
       <c r="R7" t="n">
-        <v>6654241.463238377</v>
+        <v>6654248.779146108</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2 dm2 på stammen av levande asp, omkr. 94 cm.</t>
+          <t>1 gyttring på stammen av levande asp, omkr. 128 cm.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1488,7 +1488,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16988186</v>
+        <v>16988187</v>
       </c>
       <c r="B8" t="n">
         <v>93145</v>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1537,10 +1537,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>650230.3599248125</v>
+        <v>650235.1728147549</v>
       </c>
       <c r="R8" t="n">
-        <v>6654248.779146108</v>
+        <v>6654241.463238377</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>1 dm2 på stammen av levande asp, omkr. 128 cm.</t>
+          <t>2 dm2 på stammen av levande asp, omkr. 94 cm.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1629,10 +1629,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>388575</v>
+        <v>16988186</v>
       </c>
       <c r="B9" t="n">
-        <v>89403</v>
+        <v>93145</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1645,34 +1645,43 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1205</v>
+        <v>2667</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(Hedw.) Huebener</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Ånge, strax N Skjutshagen, Upl</t>
+          <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>650212.2288253235</v>
+        <v>650230.3599248125</v>
       </c>
       <c r="R9" t="n">
-        <v>6654250.544444097</v>
+        <v>6654248.779146108</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1699,7 +1708,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2001-10-15</t>
+          <t>2014-09-12</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1709,7 +1718,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2001-10-15</t>
+          <t>2014-09-12</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1717,6 +1726,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>1 dm2 på stammen av levande asp, omkr. 128 cm.</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1726,34 +1740,40 @@
       <c r="AG9" t="b">
         <v>0</v>
       </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>PPOP45</t>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Äldre barrskog med stort inslag av asp.</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Stammen av levande asp. # Asp</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Lars-Thure Nordin</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Via Lars-Thure Nordin</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>Uppföljning av skyddade områden</t>
-        </is>
-      </c>
+          <t>Gillis Aronsson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>298575</v>
+        <v>388575</v>
       </c>
       <c r="B10" t="n">
-        <v>89388</v>
+        <v>89403</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1762,25 +1782,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1108</v>
+        <v>1205</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1790,10 +1810,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>650208.3108486559</v>
+        <v>650212.2288253235</v>
       </c>
       <c r="R10" t="n">
-        <v>6654088.122194649</v>
+        <v>6654250.544444097</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1849,7 +1869,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>ILEPO3</t>
+          <t>PPOP45</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1871,10 +1891,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>61142769</v>
+        <v>298575</v>
       </c>
       <c r="B11" t="n">
-        <v>88896</v>
+        <v>89388</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1883,47 +1903,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>720</v>
+        <v>1108</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
+          <t>Ånge, strax N Skjutshagen, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>650208.7327171501</v>
+        <v>650208.3108486559</v>
       </c>
       <c r="R11" t="n">
-        <v>6654176.282925143</v>
+        <v>6654088.122194649</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1950,7 +1961,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2016-08-25</t>
+          <t>2001-10-15</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1960,7 +1971,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2016-08-25</t>
+          <t>2001-10-15</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1976,26 +1987,35 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>ILEPO3</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Lars-Thure Nordin</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr"/>
+          <t>Via Lars-Thure Nordin</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Uppföljning av skyddade områden</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>61142772</v>
+        <v>61142769</v>
       </c>
       <c r="B12" t="n">
-        <v>90074</v>
+        <v>88896</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2004,35 +2024,35 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>720</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2041,13 +2061,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>650082.852808781</v>
+        <v>650208.7327171501</v>
       </c>
       <c r="R12" t="n">
-        <v>6654286.341234912</v>
+        <v>6654176.282925143</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2087,11 +2107,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Ca 100 fruktkroppar runt stambasen på död gran</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2118,10 +2133,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>71202256</v>
+        <v>61142772</v>
       </c>
       <c r="B13" t="n">
-        <v>89392</v>
+        <v>90074</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2130,43 +2145,50 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>650145.9912379431</v>
+        <v>650082.852808781</v>
       </c>
       <c r="R13" t="n">
-        <v>6654263.371277123</v>
+        <v>6654286.341234912</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2190,7 +2212,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2018-05-09</t>
+          <t>2016-08-25</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2200,7 +2222,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2018-05-09</t>
+          <t>2016-08-25</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2208,50 +2230,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ca 100 fruktkroppar runt stambasen på död gran</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>Blandskog på blockmark</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>Död trädstam</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Dead tree stem</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Thorleif Joelson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Thorleif Joelson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>71202288</v>
+        <v>71202256</v>
       </c>
       <c r="B14" t="n">
-        <v>93145</v>
+        <v>89392</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2260,45 +2271,40 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2667</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>650205.6607596481</v>
+        <v>650145.9912379431</v>
       </c>
       <c r="R14" t="n">
-        <v>6654276.318358477</v>
+        <v>6654263.371277123</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2343,17 +2349,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Rikligt förekommande i omgivningen inom 50-100 meter från koordinaten. Mossan sitter både på asparnas stammar och på stenblocken.</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2362,19 +2364,14 @@
           <t>Blandskog på blockmark</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Död trädstam</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Dead tree stem</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2392,10 +2389,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>71202426</v>
+        <v>71202288</v>
       </c>
       <c r="B15" t="n">
-        <v>89403</v>
+        <v>93145</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2408,44 +2405,41 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1205</v>
+        <v>2667</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Hedw.) Huebener</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>650229.3990415223</v>
+        <v>650205.6607596481</v>
       </c>
       <c r="R15" t="n">
-        <v>6654247.738394898</v>
+        <v>6654276.318358477</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2490,13 +2484,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Rikligt förekommande i omgivningen inom 50-100 meter från koordinaten. Mossan sitter både på asparnas stammar och på stenblocken.</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2535,10 +2533,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>71847469</v>
+        <v>71202426</v>
       </c>
       <c r="B16" t="n">
-        <v>93044</v>
+        <v>89403</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2551,21 +2549,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2809</v>
+        <v>1205</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2575,25 +2573,20 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>utan kapsel</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>650285.8920454521</v>
+        <v>650229.3990415223</v>
       </c>
       <c r="R16" t="n">
-        <v>6654277.083742479</v>
+        <v>6654247.738394898</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2620,7 +2613,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2018-06-12</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2630,7 +2623,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2018-06-12</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2644,8 +2637,29 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Blandskog på blockmark</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2655,21 +2669,17 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Thorleif Joelson, Jörgen Sjöström</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr">
-        <is>
-          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
-        </is>
-      </c>
+          <t>Thorleif Joelson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>73455229</v>
+        <v>71847469</v>
       </c>
       <c r="B17" t="n">
-        <v>89392</v>
+        <v>93044</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2678,47 +2688,53 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>2809</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>dm²</t>
-        </is>
-      </c>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>utan kapsel</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>650143.1859480152</v>
+        <v>650285.8920454521</v>
       </c>
       <c r="R17" t="n">
-        <v>6654233.709895303</v>
+        <v>6654277.083742479</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2745,7 +2761,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2018-05-06</t>
+          <t>2018-06-12</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2755,7 +2771,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2018-05-06</t>
+          <t>2018-06-12</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2763,11 +2779,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Ca. 4 dm2 på bark på granlåga, omkr. 80 cm.</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2776,41 +2787,30 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>Äldre barrskog med stort inslag av asp.</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>Gran</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Bark på granlåga. # Gran</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Thorleif Joelson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
-        </is>
-      </c>
-      <c r="AY17" t="inlineStr"/>
+          <t>Thorleif Joelson, Jörgen Sjöström</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>73455223</v>
+        <v>73455229</v>
       </c>
       <c r="B18" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2819,30 +2819,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>1 dm2 på naken ved på granlåga, omkr. 80 cm.</t>
+          <t>Ca. 4 dm2 på bark på granlåga, omkr. 80 cm.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Naken ved på granlåga. # Gran</t>
+          <t>Bark på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2948,10 +2948,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>73455231</v>
+        <v>73455223</v>
       </c>
       <c r="B19" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2960,30 +2960,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>650079.9249375408</v>
+        <v>650143.1859480152</v>
       </c>
       <c r="R19" t="n">
-        <v>6654259.679922967</v>
+        <v>6654233.709895303</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Ca. 30 dm2 på bark och naken ved på granlåga, omkr. 108 cm.</t>
+          <t>1 dm2 på naken ved på granlåga, omkr. 80 cm.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Bark och naken ved på granlåga. # Gran</t>
+          <t>Naken ved på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>73455230</v>
+        <v>73455231</v>
       </c>
       <c r="B20" t="n">
         <v>89392</v>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3138,10 +3138,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>650130.4212935694</v>
+        <v>650079.9249375408</v>
       </c>
       <c r="R20" t="n">
-        <v>6654239.199736984</v>
+        <v>6654259.679922967</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Ca. 5 dm2 på bark på granlåga, omkr. 101 cm.</t>
+          <t>Ca. 30 dm2 på bark och naken ved på granlåga, omkr. 108 cm.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Bark på granlåga. # Gran</t>
+          <t>Bark och naken ved på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>73455232</v>
+        <v>73455230</v>
       </c>
       <c r="B21" t="n">
         <v>89392</v>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3279,10 +3279,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>650044.2202630528</v>
+        <v>650130.4212935694</v>
       </c>
       <c r="R21" t="n">
-        <v>6654237.193258523</v>
+        <v>6654239.199736984</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>1 dm2 på bark på granlåga, omkr. 108 cm.</t>
+          <t>Ca. 5 dm2 på bark på granlåga, omkr. 101 cm.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3371,10 +3371,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>73455219</v>
+        <v>73455232</v>
       </c>
       <c r="B22" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3383,30 +3383,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>650079.9249375408</v>
+        <v>650044.2202630528</v>
       </c>
       <c r="R22" t="n">
-        <v>6654259.679922967</v>
+        <v>6654237.193258523</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Ca. 10 dm2 på naken ved på granlåga, omkr. 108 cm.</t>
+          <t>1 dm2 på bark på granlåga, omkr. 108 cm.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Naken ved på granlåga. # Gran</t>
+          <t>Bark på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3512,10 +3512,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>75954364</v>
+        <v>73455219</v>
       </c>
       <c r="B23" t="n">
-        <v>57140</v>
+        <v>89832</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3524,35 +3524,35 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100088</v>
+        <v>1209</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vanlig snok</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Natrix natrix</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>observerad</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>dm²</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3561,10 +3561,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>650049.9544379815</v>
+        <v>650079.9249375408</v>
       </c>
       <c r="R23" t="n">
-        <v>6654293.515716148</v>
+        <v>6654259.679922967</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2014-09-12</t>
+          <t>2018-05-06</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2014-09-12</t>
+          <t>2018-05-06</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>1 ex. i äldre barrskog.</t>
+          <t>Ca. 10 dm2 på naken ved på granlåga, omkr. 108 cm.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3625,7 +3625,17 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>Äldre barrskog.</t>
+          <t>Äldre barrskog med stort inslag av asp.</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Naken ved på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3643,10 +3653,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>76843254</v>
+        <v>75954364</v>
       </c>
       <c r="B24" t="n">
-        <v>89392</v>
+        <v>57140</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3655,35 +3665,35 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>100088</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vanlig snok</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Natrix natrix</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>dm²</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>observerad</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3692,10 +3702,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>650071.3128315853</v>
+        <v>650049.9544379815</v>
       </c>
       <c r="R24" t="n">
-        <v>6654224.774252701</v>
+        <v>6654293.515716148</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3722,7 +3732,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2019-03-27</t>
+          <t>2014-09-12</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3732,7 +3742,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2019-03-27</t>
+          <t>2014-09-12</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3742,7 +3752,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Ca. 30 dm2 på bark på granlåga, omkr. 84 cm.</t>
+          <t>1 ex. i äldre barrskog.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3756,17 +3766,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Äldre barrskog med stort inslag av asp.</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>Gran</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Bark på granlåga. # Gran</t>
+          <t>Äldre barrskog.</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3784,10 +3784,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>76843245</v>
+        <v>76843254</v>
       </c>
       <c r="B25" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3796,30 +3796,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3833,10 +3833,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>650126.6176293849</v>
+        <v>650071.3128315853</v>
       </c>
       <c r="R25" t="n">
-        <v>6654049.23676201</v>
+        <v>6654224.774252701</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Ca. 5 dm2 på bark på granlåga, omkr. 73 cm.</t>
+          <t>Ca. 30 dm2 på bark på granlåga, omkr. 84 cm.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3925,7 +3925,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>76843247</v>
+        <v>76843245</v>
       </c>
       <c r="B26" t="n">
         <v>89832</v>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>650061.4310670907</v>
+        <v>650126.6176293849</v>
       </c>
       <c r="R26" t="n">
-        <v>6654233.386478259</v>
+        <v>6654049.23676201</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Ca. 30 dm2 på bark på granlåga, omkr. 137 cm.</t>
+          <t>Ca. 5 dm2 på bark på granlåga, omkr. 73 cm.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -4066,10 +4066,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>76843251</v>
+        <v>76843247</v>
       </c>
       <c r="B27" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4078,30 +4078,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -4115,10 +4115,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>650126.6176293849</v>
+        <v>650061.4310670907</v>
       </c>
       <c r="R27" t="n">
-        <v>6654049.23676201</v>
+        <v>6654233.386478259</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Ca. 10 dm2 på bark på granlåga, omkr. 73 cm.</t>
+          <t>Ca. 30 dm2 på bark på granlåga, omkr. 137 cm.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4207,10 +4207,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>76843258</v>
+        <v>76843251</v>
       </c>
       <c r="B28" t="n">
-        <v>90074</v>
+        <v>89392</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4219,38 +4219,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>650315.8911875654</v>
+        <v>650126.6176293849</v>
       </c>
       <c r="R28" t="n">
-        <v>6654205.690318728</v>
+        <v>6654049.23676201</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4297,7 +4306,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Fjolårs-ex. på granhögstubbe, omkr. 174 cm.</t>
+          <t>Ca. 10 dm2 på bark på granlåga, omkr. 73 cm.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4311,7 +4320,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>Blandskog i fuktigt, tidvis översvämmat parti.</t>
+          <t>Äldre barrskog med stort inslag av asp.</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
@@ -4321,7 +4330,7 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Granhögstubbe. # Gran</t>
+          <t>Bark på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4339,10 +4348,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>76843250</v>
+        <v>76843258</v>
       </c>
       <c r="B29" t="n">
-        <v>89392</v>
+        <v>90074</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4351,47 +4360,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>650254.1530909957</v>
+        <v>650315.8911875654</v>
       </c>
       <c r="R29" t="n">
-        <v>6654169.619749887</v>
+        <v>6654205.690318728</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Ca. 30 dm2 på bark på granlåga, omkr. 70 cm.</t>
+          <t>Fjolårs-ex. på granhögstubbe, omkr. 174 cm.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>Äldre barrskog med stort inslag av asp.</t>
+          <t>Blandskog i fuktigt, tidvis översvämmat parti.</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Bark på granlåga. # Gran</t>
+          <t>Granhögstubbe. # Gran</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4480,10 +4480,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>76843246</v>
+        <v>76843250</v>
       </c>
       <c r="B30" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4492,30 +4492,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4529,10 +4529,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>650071.3128315853</v>
+        <v>650254.1530909957</v>
       </c>
       <c r="R30" t="n">
-        <v>6654224.774252701</v>
+        <v>6654169.619749887</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ca. 10 dm2 på bark på granlåga, omkr. 84 cm.</t>
+          <t>Ca. 30 dm2 på bark på granlåga, omkr. 70 cm.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4621,10 +4621,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>76843253</v>
+        <v>76843246</v>
       </c>
       <c r="B31" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4633,25 +4633,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -4670,10 +4670,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>650085.3683997112</v>
+        <v>650071.3128315853</v>
       </c>
       <c r="R31" t="n">
-        <v>6654236.864773862</v>
+        <v>6654224.774252701</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ca. 10 dm2 på bark på granlåga, omkr. 78 cm.</t>
+          <t>Ca. 10 dm2 på bark på granlåga, omkr. 84 cm.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4762,10 +4762,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>76843261</v>
+        <v>76843253</v>
       </c>
       <c r="B32" t="n">
-        <v>5295</v>
+        <v>89392</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4778,27 +4778,31 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>101728</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Grön aspvedbock</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Saperda perforata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Pallas, 1773)</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>dm²</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4807,10 +4811,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>650106.6548793153</v>
+        <v>650085.3683997112</v>
       </c>
       <c r="R32" t="n">
-        <v>6654219.201657431</v>
+        <v>6654236.864773862</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4857,7 +4861,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Färska puppkamrar i avbruten stamdel från asphögstubbe (7 m hög), omkr. 213 cm.</t>
+          <t>Ca. 10 dm2 på bark på granlåga, omkr. 78 cm.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4876,12 +4880,12 @@
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Bark på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4899,10 +4903,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>76843265</v>
+        <v>76843261</v>
       </c>
       <c r="B33" t="n">
-        <v>78596</v>
+        <v>5295</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4911,35 +4915,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6462</v>
+        <v>101728</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Grön aspvedbock</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Saperda perforata</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>cm²</t>
+          <t>(Pallas, 1773)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4948,10 +4948,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>650216.6918637657</v>
+        <v>650106.6548793153</v>
       </c>
       <c r="R33" t="n">
-        <v>6654227.188608464</v>
+        <v>6654219.201657431</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>10 cm2 på mossbevuxen sälglåga, omkr. 160 cm.</t>
+          <t>Färska puppkamrar i avbruten stamdel från asphögstubbe (7 m hög), omkr. 213 cm.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -5017,12 +5017,12 @@
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>Sälg</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Mossbevuxen sälglåga. # Sälg</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -5040,10 +5040,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>76843252</v>
+        <v>76843265</v>
       </c>
       <c r="B34" t="n">
-        <v>89392</v>
+        <v>78596</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -5052,35 +5052,35 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>6462</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>dm²</t>
+          <t>cm²</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -5089,10 +5089,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>650117.7746192254</v>
+        <v>650216.6918637657</v>
       </c>
       <c r="R34" t="n">
-        <v>6654217.15035273</v>
+        <v>6654227.188608464</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2 dm2 på bark på granlåga, omkr. 53 cm.</t>
+          <t>10 cm2 på mossbevuxen sälglåga, omkr. 160 cm.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5158,12 +5158,12 @@
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Bark på granlåga. # Gran</t>
+          <t>Mossbevuxen sälglåga. # Sälg</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5181,10 +5181,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>76843248</v>
+        <v>76843252</v>
       </c>
       <c r="B35" t="n">
-        <v>89410</v>
+        <v>89392</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5197,26 +5197,26 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>650305.2750423762</v>
+        <v>650117.7746192254</v>
       </c>
       <c r="R35" t="n">
-        <v>6654232.301022346</v>
+        <v>6654217.15035273</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>3 dm2 på bark på stammen av avbruten topp, från död, stående gran.</t>
+          <t>2 dm2 på bark på granlåga, omkr. 53 cm.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Bark på stammen av avbruten topp från död, stående gran. # Gran</t>
+          <t>Bark på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -5322,10 +5322,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>79449095</v>
+        <v>76843248</v>
       </c>
       <c r="B36" t="n">
-        <v>89392</v>
+        <v>89410</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -5338,21 +5338,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -5371,10 +5371,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>650265.507888798</v>
+        <v>650305.2750423762</v>
       </c>
       <c r="R36" t="n">
-        <v>6654321.825176965</v>
+        <v>6654232.301022346</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2019-04-09</t>
+          <t>2019-03-27</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2019-04-09</t>
+          <t>2019-03-27</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>3 dm2 på naken ved på granlåga, omkr. 135 cm.</t>
+          <t>3 dm2 på bark på stammen av avbruten topp, från död, stående gran.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Naken ved på granlåga. # Gran</t>
+          <t>Bark på stammen av avbruten topp från död, stående gran. # Gran</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>81221606</v>
+        <v>79449095</v>
       </c>
       <c r="B37" t="n">
         <v>89392</v>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>650136.2152611676</v>
+        <v>650265.507888798</v>
       </c>
       <c r="R37" t="n">
-        <v>6654232.424447566</v>
+        <v>6654321.825176965</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-04-09</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-04-09</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>1 dm2 på bark på granlåga, omkr. 100 cm.</t>
+          <t>3 dm2 på naken ved på granlåga, omkr. 135 cm.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>Äldre barrskog, med inslag av lövträd.</t>
+          <t>Äldre barrskog med stort inslag av asp.</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Bark på granlåga. # Gran</t>
+          <t>Naken ved på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5604,10 +5604,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>81221588</v>
+        <v>81221606</v>
       </c>
       <c r="B38" t="n">
-        <v>89789</v>
+        <v>89392</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5616,38 +5616,47 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5420</v>
+        <v>1202</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>650259.4081757104</v>
+        <v>650136.2152611676</v>
       </c>
       <c r="R38" t="n">
-        <v>6654336.099489049</v>
+        <v>6654232.424447566</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5694,7 +5703,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>1 gyttring på marken intill levande tall, omkr. 209 cm.</t>
+          <t>1 dm2 på bark på granlåga, omkr. 100 cm.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5713,12 +5722,12 @@
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>Tall</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Marken intill basen av levande tall. # Tall</t>
+          <t>Bark på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5736,10 +5745,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>81221604</v>
+        <v>81221588</v>
       </c>
       <c r="B39" t="n">
-        <v>89356</v>
+        <v>89789</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5752,43 +5761,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5447</v>
+        <v>5420</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
+          <t>(Fr.) Pat.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>650140.3032140897</v>
+        <v>650259.4081757104</v>
       </c>
       <c r="R39" t="n">
-        <v>6654230.587701589</v>
+        <v>6654336.099489049</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>1 dm2 på naken ved på granlåga, omkr. 85 cm.</t>
+          <t>1 gyttring på marken intill levande tall, omkr. 209 cm.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5854,12 +5854,12 @@
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Tall</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Naken ved på granlåga. # Gran</t>
+          <t>Marken intill basen av levande tall. # Tall</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5877,10 +5877,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>81221602</v>
+        <v>81221604</v>
       </c>
       <c r="B40" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5889,30 +5889,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5926,10 +5926,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>650110.2746690647</v>
+        <v>650140.3032140897</v>
       </c>
       <c r="R40" t="n">
-        <v>6654228.864260363</v>
+        <v>6654230.587701589</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Ca. 20 dm2 på bark på granlåga, omkr. 109 cm.</t>
+          <t>1 dm2 på naken ved på granlåga, omkr. 85 cm.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Bark på granlåga. # Gran</t>
+          <t>Naken ved på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -6018,10 +6018,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>81221600</v>
+        <v>81221602</v>
       </c>
       <c r="B41" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -6030,30 +6030,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Ca. 5 dm2 på bark på granlåga, omkr. 109 cm.</t>
+          <t>Ca. 20 dm2 på bark på granlåga, omkr. 109 cm.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -6159,10 +6159,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>81221591</v>
+        <v>81221600</v>
       </c>
       <c r="B42" t="n">
-        <v>90005</v>
+        <v>89832</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -6171,38 +6171,47 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1339</v>
+        <v>1209</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>650134.8631010763</v>
+        <v>650110.2746690647</v>
       </c>
       <c r="R42" t="n">
-        <v>6654031.542702244</v>
+        <v>6654228.864260363</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -6249,7 +6258,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Några ex. tillsammans med klibbtickor på avbruten stamdel från granhögstubbe, omkr. 83 cm.</t>
+          <t>Ca. 5 dm2 på bark på granlåga, omkr. 109 cm.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -6273,7 +6282,7 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Avbruten stamdel från granhögstubbe, med klibbtickor. # Gran</t>
+          <t>Bark på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6291,10 +6300,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>81221605</v>
+        <v>81221591</v>
       </c>
       <c r="B43" t="n">
-        <v>89832</v>
+        <v>90005</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -6303,47 +6312,38 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1209</v>
+        <v>1339</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>650136.2152611676</v>
+        <v>650134.8631010763</v>
       </c>
       <c r="R43" t="n">
-        <v>6654232.424447566</v>
+        <v>6654031.542702244</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>3 dm2 på bark på granlåga, omkr. 100 cm.</t>
+          <t>Några ex. tillsammans med klibbtickor på avbruten stamdel från granhögstubbe, omkr. 83 cm.</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Bark på granlåga. # Gran</t>
+          <t>Avbruten stamdel från granhögstubbe, med klibbtickor. # Gran</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6432,10 +6432,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>84570041</v>
+        <v>81221605</v>
       </c>
       <c r="B44" t="n">
-        <v>89403</v>
+        <v>89832</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -6444,25 +6444,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>dm²</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6481,10 +6481,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>650682.3394157144</v>
+        <v>650136.2152611676</v>
       </c>
       <c r="R44" t="n">
-        <v>6654383.908046956</v>
+        <v>6654232.424447566</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>3 ex., 1-2 m upp i två övervallade stamsår på levande asp (med större hackspetthål), omkr. 144 cm.</t>
+          <t>3 dm2 på bark på granlåga, omkr. 100 cm.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6545,17 +6545,17 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>Litet, aspdominerat skogsparti</t>
+          <t>Äldre barrskog, med inslag av lövträd.</t>
         </is>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Övervallade stamsår på levande asp. # Asp</t>
+          <t>Bark på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -7946,10 +7946,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111898191</v>
+        <v>111898336</v>
       </c>
       <c r="B55" t="n">
-        <v>90332</v>
+        <v>89539</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7958,37 +7958,29 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4769</v>
+        <v>1202</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
@@ -7997,10 +7989,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>650135</v>
+        <v>650105</v>
       </c>
       <c r="R55" t="n">
-        <v>6654003</v>
+        <v>6654011</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -8047,12 +8039,27 @@
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>Ängsbarrskog</t>
-        </is>
-      </c>
-      <c r="AI55" t="inlineStr">
-        <is>
-          <t>Ungskog</t>
+          <t>Ängsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM55" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -8074,10 +8081,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111898889</v>
+        <v>111898507</v>
       </c>
       <c r="B56" t="n">
-        <v>98535</v>
+        <v>89979</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -8086,35 +8093,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>222498</v>
+        <v>1209</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -8122,10 +8124,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>650135</v>
+        <v>650087</v>
       </c>
       <c r="R56" t="n">
-        <v>6654003</v>
+        <v>6654015</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -8172,12 +8174,27 @@
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>Ängsbarrskog</t>
-        </is>
-      </c>
-      <c r="AI56" t="inlineStr">
-        <is>
-          <t>Ungskog</t>
+          <t>Ängsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM56" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO56" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -8199,10 +8216,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111898507</v>
+        <v>111898660</v>
       </c>
       <c r="B57" t="n">
-        <v>89845</v>
+        <v>100971</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -8211,30 +8228,31 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1209</v>
+        <v>223246</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -8242,10 +8260,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>650087</v>
+        <v>650054</v>
       </c>
       <c r="R57" t="n">
-        <v>6654015</v>
+        <v>6654018</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -8280,6 +8298,11 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Stammens omkrets i brösthöjd: 64 cm</t>
+        </is>
+      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
@@ -8293,26 +8316,6 @@
       <c r="AH57" t="inlineStr">
         <is>
           <t>Ängsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ57" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK57" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM57" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO57" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -8334,10 +8337,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111898660</v>
+        <v>111898889</v>
       </c>
       <c r="B58" t="n">
-        <v>100532</v>
+        <v>98961</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -8346,30 +8349,34 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>223246</v>
+        <v>222498</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
@@ -8378,10 +8385,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>650054</v>
+        <v>650135</v>
       </c>
       <c r="R58" t="n">
-        <v>6654018</v>
+        <v>6654003</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -8416,11 +8423,6 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>Stammens omkrets i brösthöjd: 64 cm</t>
-        </is>
-      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
@@ -8433,7 +8435,12 @@
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>Ängsblandskog</t>
+          <t>Ängsbarrskog</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>Ungskog</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -8455,10 +8462,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111898336</v>
+        <v>111898191</v>
       </c>
       <c r="B59" t="n">
-        <v>89405</v>
+        <v>90466</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -8467,29 +8474,37 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1202</v>
+        <v>4769</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
@@ -8498,10 +8513,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>650105</v>
+        <v>650135</v>
       </c>
       <c r="R59" t="n">
-        <v>6654011</v>
+        <v>6654003</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -8548,27 +8563,12 @@
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>Ängsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ59" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK59" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM59" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO59" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Ängsbarrskog</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>Ungskog</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -8593,7 +8593,7 @@
         <v>111911698</v>
       </c>
       <c r="B60" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>111911660</v>
       </c>
       <c r="B61" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>

--- a/artfynd/A 15353-2020.xlsx
+++ b/artfynd/A 15353-2020.xlsx
@@ -7946,10 +7946,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111898336</v>
+        <v>111898660</v>
       </c>
       <c r="B55" t="n">
-        <v>89539</v>
+        <v>100997</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7958,30 +7958,31 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1202</v>
+        <v>223246</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7989,10 +7990,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>650105</v>
+        <v>650054</v>
       </c>
       <c r="R55" t="n">
-        <v>6654011</v>
+        <v>6654018</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -8027,6 +8028,11 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Stammens omkrets i brösthöjd: 64 cm</t>
+        </is>
+      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
@@ -8040,26 +8046,6 @@
       <c r="AH55" t="inlineStr">
         <is>
           <t>Ängsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ55" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK55" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM55" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO55" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -8081,10 +8067,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111898507</v>
+        <v>111898889</v>
       </c>
       <c r="B56" t="n">
-        <v>89979</v>
+        <v>98980</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -8093,30 +8079,35 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1209</v>
+        <v>222498</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -8124,10 +8115,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>650087</v>
+        <v>650135</v>
       </c>
       <c r="R56" t="n">
-        <v>6654015</v>
+        <v>6654003</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -8174,27 +8165,12 @@
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>Ängsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ56" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK56" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM56" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO56" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Ängsbarrskog</t>
+        </is>
+      </c>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>Ungskog</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -8216,10 +8192,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111898660</v>
+        <v>111898507</v>
       </c>
       <c r="B57" t="n">
-        <v>100971</v>
+        <v>89993</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -8228,31 +8204,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>223246</v>
+        <v>1209</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -8260,10 +8235,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>650054</v>
+        <v>650087</v>
       </c>
       <c r="R57" t="n">
-        <v>6654018</v>
+        <v>6654015</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -8298,11 +8273,6 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Stammens omkrets i brösthöjd: 64 cm</t>
-        </is>
-      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
@@ -8316,6 +8286,26 @@
       <c r="AH57" t="inlineStr">
         <is>
           <t>Ängsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM57" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -8337,10 +8327,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111898889</v>
+        <v>111898191</v>
       </c>
       <c r="B58" t="n">
-        <v>98961</v>
+        <v>90480</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -8353,31 +8343,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -8462,10 +8455,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111898191</v>
+        <v>111898336</v>
       </c>
       <c r="B59" t="n">
-        <v>90466</v>
+        <v>89553</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -8474,37 +8467,29 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4769</v>
+        <v>1202</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
@@ -8513,10 +8498,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>650135</v>
+        <v>650105</v>
       </c>
       <c r="R59" t="n">
-        <v>6654003</v>
+        <v>6654011</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -8563,12 +8548,27 @@
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>Ängsbarrskog</t>
-        </is>
-      </c>
-      <c r="AI59" t="inlineStr">
-        <is>
-          <t>Ungskog</t>
+          <t>Ängsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM59" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO59" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -8590,10 +8590,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111911698</v>
+        <v>111911660</v>
       </c>
       <c r="B60" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -8642,10 +8642,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>650033</v>
+        <v>650027</v>
       </c>
       <c r="R60" t="n">
-        <v>6654279</v>
+        <v>6654299</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -8714,10 +8714,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111911660</v>
+        <v>111911698</v>
       </c>
       <c r="B61" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -8766,10 +8766,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>650027</v>
+        <v>650033</v>
       </c>
       <c r="R61" t="n">
-        <v>6654299</v>
+        <v>6654279</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>

--- a/artfynd/A 15353-2020.xlsx
+++ b/artfynd/A 15353-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84570041</v>
+        <v>16645969</v>
       </c>
       <c r="B2" t="n">
-        <v>89403</v>
+        <v>90138</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1205</v>
+        <v>366</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>650682.3394157144</v>
+        <v>650245.4454225792</v>
       </c>
       <c r="R2" t="n">
-        <v>6654383.908046956</v>
+        <v>6654247.891429788</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -759,7 +759,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2014-09-12</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2014-09-12</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>3 ex., 1-2 m upp i två övervallade stamsår på levande asp (med större hackspetthål), omkr. 144 cm.</t>
+          <t>Ca. 15 ex. på naken ved på asplåga, omkr. 49 cm.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Litet, aspdominerat skogsparti</t>
+          <t>Äldre barrskog med stort inslag av asp.</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Övervallade stamsår på levande asp. # Asp</t>
+          <t>Naken ved på asplåga. # Asp</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -821,10 +821,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16645969</v>
+        <v>16759004</v>
       </c>
       <c r="B3" t="n">
-        <v>90138</v>
+        <v>90645</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -837,26 +837,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>366</v>
+        <v>4361</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>650245.4454225792</v>
+        <v>650034.5358884345</v>
       </c>
       <c r="R3" t="n">
-        <v>6654247.891429788</v>
+        <v>6654314.92303784</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -920,7 +920,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ca. 15 ex. på naken ved på asplåga, omkr. 49 cm.</t>
+          <t>1 ex. under gran i äldre barrskog.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -934,17 +934,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Äldre barrskog med stort inslag av asp.</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>Asp</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Naken ved på asplåga. # Asp</t>
+          <t>Äldre barrskog.</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -962,10 +952,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16759004</v>
+        <v>16812350</v>
       </c>
       <c r="B4" t="n">
-        <v>90645</v>
+        <v>85077</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -974,30 +964,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>3762</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1011,10 +1001,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>650034.5358884345</v>
+        <v>650201.2203802627</v>
       </c>
       <c r="R4" t="n">
-        <v>6654314.92303784</v>
+        <v>6654175.976897066</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1061,7 +1051,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>1 ex. under gran i äldre barrskog.</t>
+          <t>2 ex. under gran.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1075,7 +1065,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Äldre barrskog.</t>
+          <t>Äldre barrskog med stort inslag av asp.</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1093,10 +1083,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16812350</v>
+        <v>16820530</v>
       </c>
       <c r="B5" t="n">
-        <v>85077</v>
+        <v>90074</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1109,43 +1099,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3762</v>
+        <v>3298</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>650201.2203802627</v>
+        <v>650133.0348542985</v>
       </c>
       <c r="R5" t="n">
-        <v>6654175.976897066</v>
+        <v>6654039.481507136</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1192,7 +1173,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2 ex. under gran.</t>
+          <t>Flera ex. på stambasen av död, stående gran, omkr. 95 cm.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1207,6 +1188,16 @@
       <c r="AI5" t="inlineStr">
         <is>
           <t>Äldre barrskog med stort inslag av asp.</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Stambasen av död, stående gran. # Gran</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1224,10 +1215,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16820530</v>
+        <v>16909680</v>
       </c>
       <c r="B6" t="n">
-        <v>90074</v>
+        <v>89376</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1240,21 +1231,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3298</v>
+        <v>4660</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Rävticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Inocutis rheades</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Pers.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1264,10 +1255,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>650133.0348542985</v>
+        <v>650230.3599248125</v>
       </c>
       <c r="R6" t="n">
-        <v>6654039.481507136</v>
+        <v>6654248.779146108</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1314,7 +1305,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Flera ex. på stambasen av död, stående gran, omkr. 95 cm.</t>
+          <t>1 gyttring på stammen av levande asp, omkr. 128 cm.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1333,12 +1324,12 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Stambasen av död, stående gran. # Gran</t>
+          <t>Stammen av levande asp. # Asp</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1356,10 +1347,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16909680</v>
+        <v>16988187</v>
       </c>
       <c r="B7" t="n">
-        <v>89376</v>
+        <v>93145</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1372,34 +1363,43 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4660</v>
+        <v>2667</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rävticka</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Inocutis rheades</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Pers.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Hedw.) Huebener</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>650230.3599248125</v>
+        <v>650235.1728147549</v>
       </c>
       <c r="R7" t="n">
-        <v>6654248.779146108</v>
+        <v>6654241.463238377</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>1 gyttring på stammen av levande asp, omkr. 128 cm.</t>
+          <t>2 dm2 på stammen av levande asp, omkr. 94 cm.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1488,7 +1488,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16988187</v>
+        <v>16988186</v>
       </c>
       <c r="B8" t="n">
         <v>93145</v>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1537,10 +1537,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>650235.1728147549</v>
+        <v>650230.3599248125</v>
       </c>
       <c r="R8" t="n">
-        <v>6654241.463238377</v>
+        <v>6654248.779146108</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2 dm2 på stammen av levande asp, omkr. 94 cm.</t>
+          <t>1 dm2 på stammen av levande asp, omkr. 128 cm.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1629,10 +1629,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16988186</v>
+        <v>388575</v>
       </c>
       <c r="B9" t="n">
-        <v>93145</v>
+        <v>89403</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1645,43 +1645,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2667</v>
+        <v>1205</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
+          <t>Ånge, strax N Skjutshagen, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>650230.3599248125</v>
+        <v>650212.2288253235</v>
       </c>
       <c r="R9" t="n">
-        <v>6654248.779146108</v>
+        <v>6654250.544444097</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1708,7 +1699,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2014-09-12</t>
+          <t>2001-10-15</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1718,7 +1709,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2014-09-12</t>
+          <t>2001-10-15</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1726,11 +1717,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>1 dm2 på stammen av levande asp, omkr. 128 cm.</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1740,40 +1726,34 @@
       <c r="AG9" t="b">
         <v>0</v>
       </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>Äldre barrskog med stort inslag av asp.</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>Asp</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Stammen av levande asp. # Asp</t>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>PPOP45</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Lars-Thure Nordin</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr"/>
+          <t>Via Lars-Thure Nordin</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Uppföljning av skyddade områden</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>388575</v>
+        <v>298575</v>
       </c>
       <c r="B10" t="n">
-        <v>89403</v>
+        <v>89388</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1782,25 +1762,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1205</v>
+        <v>1108</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1810,10 +1790,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>650212.2288253235</v>
+        <v>650208.3108486559</v>
       </c>
       <c r="R10" t="n">
-        <v>6654250.544444097</v>
+        <v>6654088.122194649</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1869,7 +1849,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>PPOP45</t>
+          <t>ILEPO3</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1891,10 +1871,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>298575</v>
+        <v>61142769</v>
       </c>
       <c r="B11" t="n">
-        <v>89388</v>
+        <v>88896</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1903,38 +1883,47 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1108</v>
+        <v>720</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(Pers.) Gray</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Ånge, strax N Skjutshagen, Upl</t>
+          <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>650208.3108486559</v>
+        <v>650208.7327171501</v>
       </c>
       <c r="R11" t="n">
-        <v>6654088.122194649</v>
+        <v>6654176.282925143</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1961,7 +1950,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2001-10-15</t>
+          <t>2016-08-25</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1971,7 +1960,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2001-10-15</t>
+          <t>2016-08-25</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1987,35 +1976,26 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>ILEPO3</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Lars-Thure Nordin</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Via Lars-Thure Nordin</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t>Uppföljning av skyddade områden</t>
-        </is>
-      </c>
+          <t>Patrick Fritzson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>61142769</v>
+        <v>61142772</v>
       </c>
       <c r="B12" t="n">
-        <v>88896</v>
+        <v>90074</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2024,35 +2004,35 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>720</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2061,13 +2041,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>650208.7327171501</v>
+        <v>650082.852808781</v>
       </c>
       <c r="R12" t="n">
-        <v>6654176.282925143</v>
+        <v>6654286.341234912</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2107,6 +2087,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ca 100 fruktkroppar runt stambasen på död gran</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2133,10 +2118,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>61142772</v>
+        <v>71202256</v>
       </c>
       <c r="B13" t="n">
-        <v>90074</v>
+        <v>89392</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2145,50 +2130,43 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>650082.852808781</v>
+        <v>650145.9912379431</v>
       </c>
       <c r="R13" t="n">
-        <v>6654286.341234912</v>
+        <v>6654263.371277123</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2212,7 +2190,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2016-08-25</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2222,7 +2200,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2016-08-25</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2230,39 +2208,50 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ca 100 fruktkroppar runt stambasen på död gran</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Blandskog på blockmark</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Död trädstam</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Dead tree stem</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Thorleif Joelson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Thorleif Joelson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>71202256</v>
+        <v>71202288</v>
       </c>
       <c r="B14" t="n">
-        <v>89392</v>
+        <v>93145</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2271,40 +2260,45 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>2667</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>650145.9912379431</v>
+        <v>650205.6607596481</v>
       </c>
       <c r="R14" t="n">
-        <v>6654263.371277123</v>
+        <v>6654276.318358477</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2349,13 +2343,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Rikligt förekommande i omgivningen inom 50-100 meter från koordinaten. Mossan sitter både på asparnas stammar och på stenblocken.</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2364,14 +2362,19 @@
           <t>Blandskog på blockmark</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>Död trädstam</t>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Dead tree stem</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2389,10 +2392,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>71202288</v>
+        <v>71202426</v>
       </c>
       <c r="B15" t="n">
-        <v>93145</v>
+        <v>89403</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2405,41 +2408,44 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2667</v>
+        <v>1205</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>650205.6607596481</v>
+        <v>650229.3990415223</v>
       </c>
       <c r="R15" t="n">
-        <v>6654276.318358477</v>
+        <v>6654247.738394898</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2484,17 +2490,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Rikligt förekommande i omgivningen inom 50-100 meter från koordinaten. Mossan sitter både på asparnas stammar och på stenblocken.</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2533,10 +2535,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>71202426</v>
+        <v>71847469</v>
       </c>
       <c r="B16" t="n">
-        <v>89403</v>
+        <v>93044</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2549,21 +2551,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1205</v>
+        <v>2809</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2573,20 +2575,25 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>utan kapsel</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>650229.3990415223</v>
+        <v>650285.8920454521</v>
       </c>
       <c r="R16" t="n">
-        <v>6654247.738394898</v>
+        <v>6654277.083742479</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2613,7 +2620,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2018-05-09</t>
+          <t>2018-06-12</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2623,7 +2630,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2018-05-09</t>
+          <t>2018-06-12</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2637,29 +2644,8 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>Blandskog på blockmark</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2669,17 +2655,21 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Thorleif Joelson</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr"/>
+          <t>Thorleif Joelson, Jörgen Sjöström</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>71847469</v>
+        <v>73455229</v>
       </c>
       <c r="B17" t="n">
-        <v>93044</v>
+        <v>89392</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2688,53 +2678,47 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2809</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>utan kapsel</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>dm²</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>650285.8920454521</v>
+        <v>650143.1859480152</v>
       </c>
       <c r="R17" t="n">
-        <v>6654277.083742479</v>
+        <v>6654233.709895303</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2761,7 +2745,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2018-06-12</t>
+          <t>2018-05-06</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2771,7 +2755,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2018-06-12</t>
+          <t>2018-05-06</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2779,6 +2763,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Ca. 4 dm2 på bark på granlåga, omkr. 80 cm.</t>
+        </is>
+      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2787,30 +2776,41 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Äldre barrskog med stort inslag av asp.</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Bark på granlåga. # Gran</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Thorleif Joelson</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Thorleif Joelson, Jörgen Sjöström</t>
-        </is>
-      </c>
-      <c r="AY17" t="inlineStr">
-        <is>
-          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
-        </is>
-      </c>
+          <t>Gillis Aronsson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>73455229</v>
+        <v>73455223</v>
       </c>
       <c r="B18" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2819,30 +2819,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Ca. 4 dm2 på bark på granlåga, omkr. 80 cm.</t>
+          <t>1 dm2 på naken ved på granlåga, omkr. 80 cm.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Bark på granlåga. # Gran</t>
+          <t>Naken ved på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2948,10 +2948,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>73455223</v>
+        <v>73455231</v>
       </c>
       <c r="B19" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2960,30 +2960,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>650143.1859480152</v>
+        <v>650079.9249375408</v>
       </c>
       <c r="R19" t="n">
-        <v>6654233.709895303</v>
+        <v>6654259.679922967</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>1 dm2 på naken ved på granlåga, omkr. 80 cm.</t>
+          <t>Ca. 30 dm2 på bark och naken ved på granlåga, omkr. 108 cm.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Naken ved på granlåga. # Gran</t>
+          <t>Bark och naken ved på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>73455231</v>
+        <v>73455230</v>
       </c>
       <c r="B20" t="n">
         <v>89392</v>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3138,10 +3138,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>650079.9249375408</v>
+        <v>650130.4212935694</v>
       </c>
       <c r="R20" t="n">
-        <v>6654259.679922967</v>
+        <v>6654239.199736984</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Ca. 30 dm2 på bark och naken ved på granlåga, omkr. 108 cm.</t>
+          <t>Ca. 5 dm2 på bark på granlåga, omkr. 101 cm.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Bark och naken ved på granlåga. # Gran</t>
+          <t>Bark på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>73455230</v>
+        <v>73455232</v>
       </c>
       <c r="B21" t="n">
         <v>89392</v>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3279,10 +3279,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>650130.4212935694</v>
+        <v>650044.2202630528</v>
       </c>
       <c r="R21" t="n">
-        <v>6654239.199736984</v>
+        <v>6654237.193258523</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Ca. 5 dm2 på bark på granlåga, omkr. 101 cm.</t>
+          <t>1 dm2 på bark på granlåga, omkr. 108 cm.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3371,10 +3371,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>73455232</v>
+        <v>73455219</v>
       </c>
       <c r="B22" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3383,30 +3383,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>650044.2202630528</v>
+        <v>650079.9249375408</v>
       </c>
       <c r="R22" t="n">
-        <v>6654237.193258523</v>
+        <v>6654259.679922967</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>1 dm2 på bark på granlåga, omkr. 108 cm.</t>
+          <t>Ca. 10 dm2 på naken ved på granlåga, omkr. 108 cm.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Bark på granlåga. # Gran</t>
+          <t>Naken ved på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3512,10 +3512,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>73455219</v>
+        <v>75954364</v>
       </c>
       <c r="B23" t="n">
-        <v>89832</v>
+        <v>57140</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3524,35 +3524,35 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1209</v>
+        <v>100088</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vanlig snok</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Natrix natrix</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>dm²</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>observerad</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3561,10 +3561,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>650079.9249375408</v>
+        <v>650049.9544379815</v>
       </c>
       <c r="R23" t="n">
-        <v>6654259.679922967</v>
+        <v>6654293.515716148</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2018-05-06</t>
+          <t>2014-09-12</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2018-05-06</t>
+          <t>2014-09-12</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Ca. 10 dm2 på naken ved på granlåga, omkr. 108 cm.</t>
+          <t>1 ex. i äldre barrskog.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3625,17 +3625,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>Äldre barrskog med stort inslag av asp.</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>Gran</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Naken ved på granlåga. # Gran</t>
+          <t>Äldre barrskog.</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3653,10 +3643,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>75954364</v>
+        <v>76843254</v>
       </c>
       <c r="B24" t="n">
-        <v>57140</v>
+        <v>89392</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3665,35 +3655,35 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100088</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vanlig snok</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Natrix natrix</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>observerad</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>dm²</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3702,10 +3692,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>650049.9544379815</v>
+        <v>650071.3128315853</v>
       </c>
       <c r="R24" t="n">
-        <v>6654293.515716148</v>
+        <v>6654224.774252701</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3732,7 +3722,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2014-09-12</t>
+          <t>2019-03-27</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3742,7 +3732,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2014-09-12</t>
+          <t>2019-03-27</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3752,7 +3742,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>1 ex. i äldre barrskog.</t>
+          <t>Ca. 30 dm2 på bark på granlåga, omkr. 84 cm.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3766,7 +3756,17 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Äldre barrskog.</t>
+          <t>Äldre barrskog med stort inslag av asp.</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Bark på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3784,10 +3784,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>76843254</v>
+        <v>76843245</v>
       </c>
       <c r="B25" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3796,30 +3796,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3833,10 +3833,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>650071.3128315853</v>
+        <v>650126.6176293849</v>
       </c>
       <c r="R25" t="n">
-        <v>6654224.774252701</v>
+        <v>6654049.23676201</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Ca. 30 dm2 på bark på granlåga, omkr. 84 cm.</t>
+          <t>Ca. 5 dm2 på bark på granlåga, omkr. 73 cm.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3925,7 +3925,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>76843245</v>
+        <v>76843247</v>
       </c>
       <c r="B26" t="n">
         <v>89832</v>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>650126.6176293849</v>
+        <v>650061.4310670907</v>
       </c>
       <c r="R26" t="n">
-        <v>6654049.23676201</v>
+        <v>6654233.386478259</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Ca. 5 dm2 på bark på granlåga, omkr. 73 cm.</t>
+          <t>Ca. 30 dm2 på bark på granlåga, omkr. 137 cm.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -4066,10 +4066,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>76843247</v>
+        <v>76843251</v>
       </c>
       <c r="B27" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4078,30 +4078,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -4115,10 +4115,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>650061.4310670907</v>
+        <v>650126.6176293849</v>
       </c>
       <c r="R27" t="n">
-        <v>6654233.386478259</v>
+        <v>6654049.23676201</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Ca. 30 dm2 på bark på granlåga, omkr. 137 cm.</t>
+          <t>Ca. 10 dm2 på bark på granlåga, omkr. 73 cm.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4207,10 +4207,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>76843251</v>
+        <v>76843258</v>
       </c>
       <c r="B28" t="n">
-        <v>89392</v>
+        <v>90074</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4219,47 +4219,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>650126.6176293849</v>
+        <v>650315.8911875654</v>
       </c>
       <c r="R28" t="n">
-        <v>6654049.23676201</v>
+        <v>6654205.690318728</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4306,7 +4297,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Ca. 10 dm2 på bark på granlåga, omkr. 73 cm.</t>
+          <t>Fjolårs-ex. på granhögstubbe, omkr. 174 cm.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4320,7 +4311,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>Äldre barrskog med stort inslag av asp.</t>
+          <t>Blandskog i fuktigt, tidvis översvämmat parti.</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
@@ -4330,7 +4321,7 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Bark på granlåga. # Gran</t>
+          <t>Granhögstubbe. # Gran</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4348,10 +4339,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>76843258</v>
+        <v>76843250</v>
       </c>
       <c r="B29" t="n">
-        <v>90074</v>
+        <v>89392</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4360,38 +4351,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>650315.8911875654</v>
+        <v>650254.1530909957</v>
       </c>
       <c r="R29" t="n">
-        <v>6654205.690318728</v>
+        <v>6654169.619749887</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Fjolårs-ex. på granhögstubbe, omkr. 174 cm.</t>
+          <t>Ca. 30 dm2 på bark på granlåga, omkr. 70 cm.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>Blandskog i fuktigt, tidvis översvämmat parti.</t>
+          <t>Äldre barrskog med stort inslag av asp.</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Granhögstubbe. # Gran</t>
+          <t>Bark på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4480,10 +4480,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>76843250</v>
+        <v>76843246</v>
       </c>
       <c r="B30" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4492,30 +4492,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4529,10 +4529,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>650254.1530909957</v>
+        <v>650071.3128315853</v>
       </c>
       <c r="R30" t="n">
-        <v>6654169.619749887</v>
+        <v>6654224.774252701</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ca. 30 dm2 på bark på granlåga, omkr. 70 cm.</t>
+          <t>Ca. 10 dm2 på bark på granlåga, omkr. 84 cm.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4621,10 +4621,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>76843246</v>
+        <v>76843253</v>
       </c>
       <c r="B31" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4633,25 +4633,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -4670,10 +4670,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>650071.3128315853</v>
+        <v>650085.3683997112</v>
       </c>
       <c r="R31" t="n">
-        <v>6654224.774252701</v>
+        <v>6654236.864773862</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ca. 10 dm2 på bark på granlåga, omkr. 84 cm.</t>
+          <t>Ca. 10 dm2 på bark på granlåga, omkr. 78 cm.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4762,10 +4762,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>76843253</v>
+        <v>76843261</v>
       </c>
       <c r="B32" t="n">
-        <v>89392</v>
+        <v>5295</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4778,31 +4778,27 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>101728</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Grön aspvedbock</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Saperda perforata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>dm²</t>
+          <t>(Pallas, 1773)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4811,10 +4807,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>650085.3683997112</v>
+        <v>650106.6548793153</v>
       </c>
       <c r="R32" t="n">
-        <v>6654236.864773862</v>
+        <v>6654219.201657431</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4861,7 +4857,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Ca. 10 dm2 på bark på granlåga, omkr. 78 cm.</t>
+          <t>Färska puppkamrar i avbruten stamdel från asphögstubbe (7 m hög), omkr. 213 cm.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4880,12 +4876,12 @@
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Bark på granlåga. # Gran</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4903,10 +4899,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>76843261</v>
+        <v>76843265</v>
       </c>
       <c r="B33" t="n">
-        <v>5295</v>
+        <v>78596</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4915,31 +4911,35 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>101728</v>
+        <v>6462</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Grön aspvedbock</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Saperda perforata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Pallas, 1773)</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>cm²</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4948,10 +4948,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>650106.6548793153</v>
+        <v>650216.6918637657</v>
       </c>
       <c r="R33" t="n">
-        <v>6654219.201657431</v>
+        <v>6654227.188608464</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Färska puppkamrar i avbruten stamdel från asphögstubbe (7 m hög), omkr. 213 cm.</t>
+          <t>10 cm2 på mossbevuxen sälglåga, omkr. 160 cm.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -5017,12 +5017,12 @@
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Mossbevuxen sälglåga. # Sälg</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -5040,10 +5040,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>76843265</v>
+        <v>76843252</v>
       </c>
       <c r="B34" t="n">
-        <v>78596</v>
+        <v>89392</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -5052,35 +5052,35 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>cm²</t>
+          <t>dm²</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -5089,10 +5089,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>650216.6918637657</v>
+        <v>650117.7746192254</v>
       </c>
       <c r="R34" t="n">
-        <v>6654227.188608464</v>
+        <v>6654217.15035273</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>10 cm2 på mossbevuxen sälglåga, omkr. 160 cm.</t>
+          <t>2 dm2 på bark på granlåga, omkr. 53 cm.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5158,12 +5158,12 @@
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>Sälg</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Mossbevuxen sälglåga. # Sälg</t>
+          <t>Bark på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5181,10 +5181,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>76843252</v>
+        <v>76843248</v>
       </c>
       <c r="B35" t="n">
-        <v>89392</v>
+        <v>89410</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5197,26 +5197,26 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>650117.7746192254</v>
+        <v>650305.2750423762</v>
       </c>
       <c r="R35" t="n">
-        <v>6654217.15035273</v>
+        <v>6654232.301022346</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2 dm2 på bark på granlåga, omkr. 53 cm.</t>
+          <t>3 dm2 på bark på stammen av avbruten topp, från död, stående gran.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Bark på granlåga. # Gran</t>
+          <t>Bark på stammen av avbruten topp från död, stående gran. # Gran</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -5322,10 +5322,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>76843248</v>
+        <v>79449095</v>
       </c>
       <c r="B36" t="n">
-        <v>89410</v>
+        <v>89392</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -5338,21 +5338,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -5371,10 +5371,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>650305.2750423762</v>
+        <v>650265.507888798</v>
       </c>
       <c r="R36" t="n">
-        <v>6654232.301022346</v>
+        <v>6654321.825176965</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2019-03-27</t>
+          <t>2019-04-09</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2019-03-27</t>
+          <t>2019-04-09</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>3 dm2 på bark på stammen av avbruten topp, från död, stående gran.</t>
+          <t>3 dm2 på naken ved på granlåga, omkr. 135 cm.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Bark på stammen av avbruten topp från död, stående gran. # Gran</t>
+          <t>Naken ved på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>79449095</v>
+        <v>81221606</v>
       </c>
       <c r="B37" t="n">
         <v>89392</v>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>650265.507888798</v>
+        <v>650136.2152611676</v>
       </c>
       <c r="R37" t="n">
-        <v>6654321.825176965</v>
+        <v>6654232.424447566</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2019-04-09</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2019-04-09</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>3 dm2 på naken ved på granlåga, omkr. 135 cm.</t>
+          <t>1 dm2 på bark på granlåga, omkr. 100 cm.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>Äldre barrskog med stort inslag av asp.</t>
+          <t>Äldre barrskog, med inslag av lövträd.</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Naken ved på granlåga. # Gran</t>
+          <t>Bark på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5604,10 +5604,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>81221606</v>
+        <v>81221588</v>
       </c>
       <c r="B38" t="n">
-        <v>89392</v>
+        <v>89789</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5616,47 +5616,38 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1202</v>
+        <v>5420</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
+          <t>(Fr.) Pat.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>650136.2152611676</v>
+        <v>650259.4081757104</v>
       </c>
       <c r="R38" t="n">
-        <v>6654232.424447566</v>
+        <v>6654336.099489049</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5703,7 +5694,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>1 dm2 på bark på granlåga, omkr. 100 cm.</t>
+          <t>1 gyttring på marken intill levande tall, omkr. 209 cm.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5722,12 +5713,12 @@
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Tall</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Bark på granlåga. # Gran</t>
+          <t>Marken intill basen av levande tall. # Tall</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5745,10 +5736,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>81221588</v>
+        <v>81221604</v>
       </c>
       <c r="B39" t="n">
-        <v>89789</v>
+        <v>89356</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5761,34 +5752,43 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5420</v>
+        <v>5447</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>650259.4081757104</v>
+        <v>650140.3032140897</v>
       </c>
       <c r="R39" t="n">
-        <v>6654336.099489049</v>
+        <v>6654230.587701589</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>1 gyttring på marken intill levande tall, omkr. 209 cm.</t>
+          <t>1 dm2 på naken ved på granlåga, omkr. 85 cm.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5854,12 +5854,12 @@
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>Tall</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Marken intill basen av levande tall. # Tall</t>
+          <t>Naken ved på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5877,10 +5877,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>81221604</v>
+        <v>81221602</v>
       </c>
       <c r="B40" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5889,30 +5889,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5926,10 +5926,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>650140.3032140897</v>
+        <v>650110.2746690647</v>
       </c>
       <c r="R40" t="n">
-        <v>6654230.587701589</v>
+        <v>6654228.864260363</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>1 dm2 på naken ved på granlåga, omkr. 85 cm.</t>
+          <t>Ca. 20 dm2 på bark på granlåga, omkr. 109 cm.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Naken ved på granlåga. # Gran</t>
+          <t>Bark på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -6018,10 +6018,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>81221602</v>
+        <v>81221600</v>
       </c>
       <c r="B41" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -6030,30 +6030,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Ca. 20 dm2 på bark på granlåga, omkr. 109 cm.</t>
+          <t>Ca. 5 dm2 på bark på granlåga, omkr. 109 cm.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -6159,10 +6159,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>81221600</v>
+        <v>81221591</v>
       </c>
       <c r="B42" t="n">
-        <v>89832</v>
+        <v>90005</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -6171,47 +6171,38 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1209</v>
+        <v>1339</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>650110.2746690647</v>
+        <v>650134.8631010763</v>
       </c>
       <c r="R42" t="n">
-        <v>6654228.864260363</v>
+        <v>6654031.542702244</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -6258,7 +6249,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Ca. 5 dm2 på bark på granlåga, omkr. 109 cm.</t>
+          <t>Några ex. tillsammans med klibbtickor på avbruten stamdel från granhögstubbe, omkr. 83 cm.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -6282,7 +6273,7 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Bark på granlåga. # Gran</t>
+          <t>Avbruten stamdel från granhögstubbe, med klibbtickor. # Gran</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6300,10 +6291,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>81221591</v>
+        <v>81221605</v>
       </c>
       <c r="B43" t="n">
-        <v>90005</v>
+        <v>89832</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -6312,38 +6303,47 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1339</v>
+        <v>1209</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Lill-Ångeskogen 3 km SV om Lena kyrka, Upl</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>650134.8631010763</v>
+        <v>650136.2152611676</v>
       </c>
       <c r="R43" t="n">
-        <v>6654031.542702244</v>
+        <v>6654232.424447566</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Några ex. tillsammans med klibbtickor på avbruten stamdel från granhögstubbe, omkr. 83 cm.</t>
+          <t>3 dm2 på bark på granlåga, omkr. 100 cm.</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Avbruten stamdel från granhögstubbe, med klibbtickor. # Gran</t>
+          <t>Bark på granlåga. # Gran</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6432,10 +6432,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>81221605</v>
+        <v>84570041</v>
       </c>
       <c r="B44" t="n">
-        <v>89832</v>
+        <v>89403</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -6444,25 +6444,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>dm²</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6481,10 +6481,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>650136.2152611676</v>
+        <v>650682.3394157144</v>
       </c>
       <c r="R44" t="n">
-        <v>6654232.424447566</v>
+        <v>6654383.908046956</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>3 dm2 på bark på granlåga, omkr. 100 cm.</t>
+          <t>3 ex., 1-2 m upp i två övervallade stamsår på levande asp (med större hackspetthål), omkr. 144 cm.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6545,17 +6545,17 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>Äldre barrskog, med inslag av lövträd.</t>
+          <t>Litet, aspdominerat skogsparti</t>
         </is>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Bark på granlåga. # Gran</t>
+          <t>Övervallade stamsår på levande asp. # Asp</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
